--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gip-Dpp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gip-Dpp4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Gip</t>
+  </si>
+  <si>
+    <t>Dpp4</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gip</t>
-  </si>
-  <si>
-    <t>Dpp4</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,46 +543,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01348466666666667</v>
+        <v>0.3071443333333333</v>
       </c>
       <c r="H2">
-        <v>0.040454</v>
+        <v>0.9214329999999999</v>
       </c>
       <c r="I2">
-        <v>0.0276924951517255</v>
+        <v>0.9908446395332207</v>
       </c>
       <c r="J2">
-        <v>0.0276924951517255</v>
+        <v>0.9908446395332207</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.161200999999999</v>
+        <v>0.1511923333333333</v>
       </c>
       <c r="N2">
-        <v>12.483603</v>
+        <v>0.453577</v>
       </c>
       <c r="O2">
-        <v>0.1815004481243766</v>
+        <v>0.01480078410281245</v>
       </c>
       <c r="P2">
-        <v>0.1815004481243766</v>
+        <v>0.01480078410281245</v>
       </c>
       <c r="Q2">
-        <v>0.05611240841799999</v>
+        <v>0.04643786842677777</v>
       </c>
       <c r="R2">
-        <v>0.505011675762</v>
+        <v>0.417940815841</v>
       </c>
       <c r="S2">
-        <v>0.005026200279720303</v>
+        <v>0.01466527758916023</v>
       </c>
       <c r="T2">
-        <v>0.005026200279720303</v>
+        <v>0.01466527758916023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01348466666666667</v>
+        <v>0.3071443333333333</v>
       </c>
       <c r="H3">
-        <v>0.040454</v>
+        <v>0.9214329999999999</v>
       </c>
       <c r="I3">
-        <v>0.0276924951517255</v>
+        <v>0.9908446395332207</v>
       </c>
       <c r="J3">
-        <v>0.0276924951517255</v>
+        <v>0.9908446395332207</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.362993666666666</v>
+        <v>4.161200999999999</v>
       </c>
       <c r="N3">
-        <v>13.088981</v>
+        <v>12.483603</v>
       </c>
       <c r="O3">
-        <v>0.1903021040473212</v>
+        <v>0.4073555599781775</v>
       </c>
       <c r="P3">
-        <v>0.1903021040473212</v>
+        <v>0.4073555599781775</v>
       </c>
       <c r="Q3">
-        <v>0.05883351526377777</v>
+        <v>1.278089307011</v>
       </c>
       <c r="R3">
-        <v>0.529501637374</v>
+        <v>11.502803763099</v>
       </c>
       <c r="S3">
-        <v>0.005269940093693603</v>
+        <v>0.4036260729884305</v>
       </c>
       <c r="T3">
-        <v>0.005269940093693603</v>
+        <v>0.4036260729884305</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +667,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01348466666666667</v>
+        <v>0.3071443333333333</v>
       </c>
       <c r="H4">
-        <v>0.040454</v>
+        <v>0.9214329999999999</v>
       </c>
       <c r="I4">
-        <v>0.0276924951517255</v>
+        <v>0.9908446395332207</v>
       </c>
       <c r="J4">
-        <v>0.0276924951517255</v>
+        <v>0.9908446395332207</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.08285966666666666</v>
+        <v>2.831519333333334</v>
       </c>
       <c r="N4">
-        <v>0.248579</v>
+        <v>8.494558000000001</v>
       </c>
       <c r="O4">
-        <v>0.003614116845457951</v>
+        <v>0.2771880386501484</v>
       </c>
       <c r="P4">
-        <v>0.003614116845457951</v>
+        <v>0.2771880386501483</v>
       </c>
       <c r="Q4">
-        <v>0.001117334985111111</v>
+        <v>0.8696851179571112</v>
       </c>
       <c r="R4">
-        <v>0.010056014866</v>
+        <v>7.827166061614001</v>
       </c>
       <c r="S4">
-        <v>0.0001000839132206138</v>
+        <v>0.2746502822392267</v>
       </c>
       <c r="T4">
-        <v>0.0001000839132206138</v>
+        <v>0.2746502822392267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01348466666666667</v>
+        <v>0.3071443333333333</v>
       </c>
       <c r="H5">
-        <v>0.040454</v>
+        <v>0.9214329999999999</v>
       </c>
       <c r="I5">
-        <v>0.0276924951517255</v>
+        <v>0.9908446395332207</v>
       </c>
       <c r="J5">
-        <v>0.0276924951517255</v>
+        <v>0.9908446395332207</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.587778666666667</v>
+        <v>2.271374</v>
       </c>
       <c r="N5">
-        <v>4.763336</v>
+        <v>6.814121999999999</v>
       </c>
       <c r="O5">
-        <v>0.06925465497156354</v>
+        <v>0.2223533128272037</v>
       </c>
       <c r="P5">
-        <v>0.06925465497156354</v>
+        <v>0.2223533128272037</v>
       </c>
       <c r="Q5">
-        <v>0.02141066606044445</v>
+        <v>0.6976396529806665</v>
       </c>
       <c r="R5">
-        <v>0.192695994544</v>
+        <v>6.278756876825999</v>
       </c>
       <c r="S5">
-        <v>0.001917834197034445</v>
+        <v>0.2203175880972881</v>
       </c>
       <c r="T5">
-        <v>0.001917834197034445</v>
+        <v>0.2203175880972881</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01348466666666667</v>
+        <v>0.3071443333333333</v>
       </c>
       <c r="H6">
-        <v>0.040454</v>
+        <v>0.9214329999999999</v>
       </c>
       <c r="I6">
-        <v>0.0276924951517255</v>
+        <v>0.9908446395332207</v>
       </c>
       <c r="J6">
-        <v>0.0276924951517255</v>
+        <v>0.9908446395332207</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.73183766666667</v>
+        <v>0.7998703333333332</v>
       </c>
       <c r="N6">
-        <v>38.19551300000001</v>
+        <v>2.399611</v>
       </c>
       <c r="O6">
-        <v>0.5553286760112808</v>
+        <v>0.07830230444165795</v>
       </c>
       <c r="P6">
-        <v>0.5553286760112808</v>
+        <v>0.07830230444165795</v>
       </c>
       <c r="Q6">
-        <v>0.1716845869891112</v>
+        <v>0.2456756402847777</v>
       </c>
       <c r="R6">
-        <v>1.545161282902</v>
+        <v>2.211080762563</v>
       </c>
       <c r="S6">
-        <v>0.01537843666805653</v>
+        <v>0.07758541861911507</v>
       </c>
       <c r="T6">
-        <v>0.01537843666805653</v>
+        <v>0.07758541861911507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,46 +853,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3071443333333333</v>
+        <v>0.002838</v>
       </c>
       <c r="H7">
-        <v>0.9214329999999999</v>
+        <v>0.008514000000000001</v>
       </c>
       <c r="I7">
-        <v>0.6307603422440272</v>
+        <v>0.009155360466779292</v>
       </c>
       <c r="J7">
-        <v>0.6307603422440272</v>
+        <v>0.00915536046677929</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>4.161200999999999</v>
+        <v>0.1511923333333333</v>
       </c>
       <c r="N7">
-        <v>12.483603</v>
+        <v>0.453577</v>
       </c>
       <c r="O7">
-        <v>0.1815004481243766</v>
+        <v>0.01480078410281245</v>
       </c>
       <c r="P7">
-        <v>0.1815004481243766</v>
+        <v>0.01480078410281245</v>
       </c>
       <c r="Q7">
-        <v>1.278089307011</v>
+        <v>0.0004290838420000001</v>
       </c>
       <c r="R7">
-        <v>11.502803763099</v>
+        <v>0.003861754578000001</v>
       </c>
       <c r="S7">
-        <v>0.1144832847763761</v>
+        <v>0.0001355065136522245</v>
       </c>
       <c r="T7">
-        <v>0.1144832847763761</v>
+        <v>0.0001355065136522245</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.3071443333333333</v>
+        <v>0.002838</v>
       </c>
       <c r="H8">
-        <v>0.9214329999999999</v>
+        <v>0.008514000000000001</v>
       </c>
       <c r="I8">
-        <v>0.6307603422440272</v>
+        <v>0.009155360466779292</v>
       </c>
       <c r="J8">
-        <v>0.6307603422440272</v>
+        <v>0.00915536046677929</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.362993666666666</v>
+        <v>4.161200999999999</v>
       </c>
       <c r="N8">
-        <v>13.088981</v>
+        <v>12.483603</v>
       </c>
       <c r="O8">
-        <v>0.1903021040473212</v>
+        <v>0.4073555599781775</v>
       </c>
       <c r="P8">
-        <v>0.1903021040473212</v>
+        <v>0.4073555599781775</v>
       </c>
       <c r="Q8">
-        <v>1.340068781085889</v>
+        <v>0.011809488438</v>
       </c>
       <c r="R8">
-        <v>12.060619029773</v>
+        <v>0.106285395942</v>
       </c>
       <c r="S8">
-        <v>0.1200350202786468</v>
+        <v>0.003729486989746946</v>
       </c>
       <c r="T8">
-        <v>0.1200350202786468</v>
+        <v>0.003729486989746946</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,46 +977,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.3071443333333333</v>
+        <v>0.002838</v>
       </c>
       <c r="H9">
-        <v>0.9214329999999999</v>
+        <v>0.008514000000000001</v>
       </c>
       <c r="I9">
-        <v>0.6307603422440272</v>
+        <v>0.009155360466779292</v>
       </c>
       <c r="J9">
-        <v>0.6307603422440272</v>
+        <v>0.00915536046677929</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.08285966666666666</v>
+        <v>2.831519333333334</v>
       </c>
       <c r="N9">
-        <v>0.248579</v>
+        <v>8.494558000000001</v>
       </c>
       <c r="O9">
-        <v>0.003614116845457951</v>
+        <v>0.2771880386501484</v>
       </c>
       <c r="P9">
-        <v>0.003614116845457951</v>
+        <v>0.2771880386501483</v>
       </c>
       <c r="Q9">
-        <v>0.02544987707855555</v>
+        <v>0.008035851868000002</v>
       </c>
       <c r="R9">
-        <v>0.229048893707</v>
+        <v>0.07232266681200002</v>
       </c>
       <c r="S9">
-        <v>0.002279641578350961</v>
+        <v>0.002537756410921659</v>
       </c>
       <c r="T9">
-        <v>0.002279641578350961</v>
+        <v>0.002537756410921658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3071443333333333</v>
+        <v>0.002838</v>
       </c>
       <c r="H10">
-        <v>0.9214329999999999</v>
+        <v>0.008514000000000001</v>
       </c>
       <c r="I10">
-        <v>0.6307603422440272</v>
+        <v>0.009155360466779292</v>
       </c>
       <c r="J10">
-        <v>0.6307603422440272</v>
+        <v>0.00915536046677929</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.587778666666667</v>
+        <v>2.271374</v>
       </c>
       <c r="N10">
-        <v>4.763336</v>
+        <v>6.814121999999999</v>
       </c>
       <c r="O10">
-        <v>0.06925465497156354</v>
+        <v>0.2223533128272037</v>
       </c>
       <c r="P10">
-        <v>0.06925465497156354</v>
+        <v>0.2223533128272037</v>
       </c>
       <c r="Q10">
-        <v>0.4876772200542221</v>
+        <v>0.006446159412</v>
       </c>
       <c r="R10">
-        <v>4.389094980487999</v>
+        <v>0.058015434708</v>
       </c>
       <c r="S10">
-        <v>0.04368308987185544</v>
+        <v>0.00203572472991559</v>
       </c>
       <c r="T10">
-        <v>0.04368308987185544</v>
+        <v>0.002035724729915589</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.3071443333333333</v>
+        <v>0.002838</v>
       </c>
       <c r="H11">
-        <v>0.9214329999999999</v>
+        <v>0.008514000000000001</v>
       </c>
       <c r="I11">
-        <v>0.6307603422440272</v>
+        <v>0.009155360466779292</v>
       </c>
       <c r="J11">
-        <v>0.6307603422440272</v>
+        <v>0.00915536046677929</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,648 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.73183766666667</v>
+        <v>0.7998703333333332</v>
       </c>
       <c r="N11">
-        <v>38.19551300000001</v>
+        <v>2.399611</v>
       </c>
       <c r="O11">
-        <v>0.5553286760112808</v>
+        <v>0.07830230444165795</v>
       </c>
       <c r="P11">
-        <v>0.5553286760112808</v>
+        <v>0.07830230444165795</v>
       </c>
       <c r="Q11">
-        <v>3.910511792236556</v>
+        <v>0.002270032006</v>
       </c>
       <c r="R11">
-        <v>35.194606130129</v>
+        <v>0.020430288054</v>
       </c>
       <c r="S11">
-        <v>0.350279305738798</v>
+        <v>0.0007168858225428717</v>
       </c>
       <c r="T11">
-        <v>0.350279305738798</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.11623</v>
-      </c>
-      <c r="H12">
-        <v>0.34869</v>
-      </c>
-      <c r="I12">
-        <v>0.2386932351425116</v>
-      </c>
-      <c r="J12">
-        <v>0.2386932351425116</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>4.161200999999999</v>
-      </c>
-      <c r="N12">
-        <v>12.483603</v>
-      </c>
-      <c r="O12">
-        <v>0.1815004481243766</v>
-      </c>
-      <c r="P12">
-        <v>0.1815004481243766</v>
-      </c>
-      <c r="Q12">
-        <v>0.4836563922299999</v>
-      </c>
-      <c r="R12">
-        <v>4.35290753007</v>
-      </c>
-      <c r="S12">
-        <v>0.04332292914262304</v>
-      </c>
-      <c r="T12">
-        <v>0.04332292914262304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.11623</v>
-      </c>
-      <c r="H13">
-        <v>0.34869</v>
-      </c>
-      <c r="I13">
-        <v>0.2386932351425116</v>
-      </c>
-      <c r="J13">
-        <v>0.2386932351425116</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.362993666666666</v>
-      </c>
-      <c r="N13">
-        <v>13.088981</v>
-      </c>
-      <c r="O13">
-        <v>0.1903021040473212</v>
-      </c>
-      <c r="P13">
-        <v>0.1903021040473212</v>
-      </c>
-      <c r="Q13">
-        <v>0.5071107538766666</v>
-      </c>
-      <c r="R13">
-        <v>4.56399678489</v>
-      </c>
-      <c r="S13">
-        <v>0.04542382486948193</v>
-      </c>
-      <c r="T13">
-        <v>0.04542382486948193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.11623</v>
-      </c>
-      <c r="H14">
-        <v>0.34869</v>
-      </c>
-      <c r="I14">
-        <v>0.2386932351425116</v>
-      </c>
-      <c r="J14">
-        <v>0.2386932351425116</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.08285966666666666</v>
-      </c>
-      <c r="N14">
-        <v>0.248579</v>
-      </c>
-      <c r="O14">
-        <v>0.003614116845457951</v>
-      </c>
-      <c r="P14">
-        <v>0.003614116845457951</v>
-      </c>
-      <c r="Q14">
-        <v>0.009630779056666667</v>
-      </c>
-      <c r="R14">
-        <v>0.08667701151</v>
-      </c>
-      <c r="S14">
-        <v>0.0008626652420254068</v>
-      </c>
-      <c r="T14">
-        <v>0.0008626652420254068</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.11623</v>
-      </c>
-      <c r="H15">
-        <v>0.34869</v>
-      </c>
-      <c r="I15">
-        <v>0.2386932351425116</v>
-      </c>
-      <c r="J15">
-        <v>0.2386932351425116</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.587778666666667</v>
-      </c>
-      <c r="N15">
-        <v>4.763336</v>
-      </c>
-      <c r="O15">
-        <v>0.06925465497156354</v>
-      </c>
-      <c r="P15">
-        <v>0.06925465497156354</v>
-      </c>
-      <c r="Q15">
-        <v>0.1845475144266667</v>
-      </c>
-      <c r="R15">
-        <v>1.66092762984</v>
-      </c>
-      <c r="S15">
-        <v>0.01653061764384092</v>
-      </c>
-      <c r="T15">
-        <v>0.01653061764384092</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.11623</v>
-      </c>
-      <c r="H16">
-        <v>0.34869</v>
-      </c>
-      <c r="I16">
-        <v>0.2386932351425116</v>
-      </c>
-      <c r="J16">
-        <v>0.2386932351425116</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>12.73183766666667</v>
-      </c>
-      <c r="N16">
-        <v>38.19551300000001</v>
-      </c>
-      <c r="O16">
-        <v>0.5553286760112808</v>
-      </c>
-      <c r="P16">
-        <v>0.5553286760112808</v>
-      </c>
-      <c r="Q16">
-        <v>1.479821491996667</v>
-      </c>
-      <c r="R16">
-        <v>13.31839342797</v>
-      </c>
-      <c r="S16">
-        <v>0.1325531982445403</v>
-      </c>
-      <c r="T16">
-        <v>0.1325531982445403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.050084</v>
-      </c>
-      <c r="H17">
-        <v>0.150252</v>
-      </c>
-      <c r="I17">
-        <v>0.1028539274617358</v>
-      </c>
-      <c r="J17">
-        <v>0.1028539274617358</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>4.161200999999999</v>
-      </c>
-      <c r="N17">
-        <v>12.483603</v>
-      </c>
-      <c r="O17">
-        <v>0.1815004481243766</v>
-      </c>
-      <c r="P17">
-        <v>0.1815004481243766</v>
-      </c>
-      <c r="Q17">
-        <v>0.208409590884</v>
-      </c>
-      <c r="R17">
-        <v>1.875686317956</v>
-      </c>
-      <c r="S17">
-        <v>0.01866803392565717</v>
-      </c>
-      <c r="T17">
-        <v>0.01866803392565717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.050084</v>
-      </c>
-      <c r="H18">
-        <v>0.150252</v>
-      </c>
-      <c r="I18">
-        <v>0.1028539274617358</v>
-      </c>
-      <c r="J18">
-        <v>0.1028539274617358</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>4.362993666666666</v>
-      </c>
-      <c r="N18">
-        <v>13.088981</v>
-      </c>
-      <c r="O18">
-        <v>0.1903021040473212</v>
-      </c>
-      <c r="P18">
-        <v>0.1903021040473212</v>
-      </c>
-      <c r="Q18">
-        <v>0.2185161748013333</v>
-      </c>
-      <c r="R18">
-        <v>1.966645573212</v>
-      </c>
-      <c r="S18">
-        <v>0.01957331880549886</v>
-      </c>
-      <c r="T18">
-        <v>0.01957331880549886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.050084</v>
-      </c>
-      <c r="H19">
-        <v>0.150252</v>
-      </c>
-      <c r="I19">
-        <v>0.1028539274617358</v>
-      </c>
-      <c r="J19">
-        <v>0.1028539274617358</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.08285966666666666</v>
-      </c>
-      <c r="N19">
-        <v>0.248579</v>
-      </c>
-      <c r="O19">
-        <v>0.003614116845457951</v>
-      </c>
-      <c r="P19">
-        <v>0.003614116845457951</v>
-      </c>
-      <c r="Q19">
-        <v>0.004149943545333333</v>
-      </c>
-      <c r="R19">
-        <v>0.037349491908</v>
-      </c>
-      <c r="S19">
-        <v>0.0003717261118609694</v>
-      </c>
-      <c r="T19">
-        <v>0.0003717261118609694</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.050084</v>
-      </c>
-      <c r="H20">
-        <v>0.150252</v>
-      </c>
-      <c r="I20">
-        <v>0.1028539274617358</v>
-      </c>
-      <c r="J20">
-        <v>0.1028539274617358</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.587778666666667</v>
-      </c>
-      <c r="N20">
-        <v>4.763336</v>
-      </c>
-      <c r="O20">
-        <v>0.06925465497156354</v>
-      </c>
-      <c r="P20">
-        <v>0.06925465497156354</v>
-      </c>
-      <c r="Q20">
-        <v>0.07952230674133333</v>
-      </c>
-      <c r="R20">
-        <v>0.7157007606719999</v>
-      </c>
-      <c r="S20">
-        <v>0.007123113258832735</v>
-      </c>
-      <c r="T20">
-        <v>0.007123113258832735</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.050084</v>
-      </c>
-      <c r="H21">
-        <v>0.150252</v>
-      </c>
-      <c r="I21">
-        <v>0.1028539274617358</v>
-      </c>
-      <c r="J21">
-        <v>0.1028539274617358</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>12.73183766666667</v>
-      </c>
-      <c r="N21">
-        <v>38.19551300000001</v>
-      </c>
-      <c r="O21">
-        <v>0.5553286760112808</v>
-      </c>
-      <c r="P21">
-        <v>0.5553286760112808</v>
-      </c>
-      <c r="Q21">
-        <v>0.6376613576973335</v>
-      </c>
-      <c r="R21">
-        <v>5.738952219276</v>
-      </c>
-      <c r="S21">
-        <v>0.05711773535988604</v>
-      </c>
-      <c r="T21">
-        <v>0.05711773535988604</v>
+        <v>0.0007168858225428716</v>
       </c>
     </row>
   </sheetData>
